--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1855.943803709519</v>
+        <v>151.1509503212594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7660000324249268</v>
+        <v>0.4279999732971191</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.14989543056733</v>
+        <v>41.15095032125945</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.76389053823837</v>
+        <v>2.171119526880084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.42779881720021</v>
+        <v>2.171119526880084</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1611.10999999999</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.02</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,42 +598,9 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -915,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.59261587131552</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.81299701176104</v>
+        <v>24.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.73386173754271</v>
+        <v>24.5722011827998</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>21.8383394452571</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +968,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,127 +982,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000000065</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.12999999999992</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000000066</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000000065</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>280.2800000000019</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>281.5350000000017</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>296.2200000000012</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>297.7300000000006</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>291.8799999999992</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>167.7200000000012</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>168.6449999999986</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>175.9099999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>167.0049999999992</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>178.6299999999992</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>174.0200000000017</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.6700000000001</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>188.4950000000008</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>185.7699999999997</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.9299999999985</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999956</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999956</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999964</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999884</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999942</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>280.2799999999988</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>281.5350000000035</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>296.2199999999993</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>297.7299999999977</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>291.8799999999974</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>167.720000000002</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>168.6449999999991</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.9099999999992</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>167.0049999999992</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>178.6299999999987</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>130.2799999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>131.5350000000035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>146.2199999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>147.7299999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>141.8799999999974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>17.720000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>18.64499999999906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>25.90999999999916</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.00499999999923</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>28.62999999999872</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +1965,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,10 +1976,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2132,144 +1987,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
